--- a/src/tests/java/auth/dev/net/data_files/text_login_page_data.xlsx
+++ b/src/tests/java/auth/dev/net/data_files/text_login_page_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="textUA" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>@dev.ukr.net</t>
-  </si>
-  <si>
     <t>support@ukr.net</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>textLogin</t>
   </si>
   <si>
-    <t>Ім'я вашої скриньки</t>
-  </si>
-  <si>
     <t>Пароль</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>//form/button/div</t>
   </si>
   <si>
-    <t>Имя вашего ящика</t>
-  </si>
-  <si>
     <t>Чужой компьютер</t>
   </si>
   <si>
@@ -192,6 +183,15 @@
   </si>
   <si>
     <t>КРУГЛОСУТОЧНАЯ ПОДДЕРЖКА</t>
+  </si>
+  <si>
+    <t>Имя ящика</t>
+  </si>
+  <si>
+    <t>@ukr.net</t>
+  </si>
+  <si>
+    <t>Ім'я скриньки</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
   <dimension ref="A1:AME24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,197 +573,197 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -794,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,197 +810,197 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,197 +1088,197 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
